--- a/app/Http/Python/excel/Wednesday.xlsx
+++ b/app/Http/Python/excel/Wednesday.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\araki\Documents\library_vue\app\Http\Python\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\araki\Documents\syllabus\app\Http\Python\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -53,7 +53,489 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>教育方法・技術（初等）</t>
+    <t>野口 華世</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>村山 賢哉、青木 博</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウェイン ペニントン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後期</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>杉沢 一美</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐藤 高司、岸 一弘、本多 正直、平岡 さつき、清水 弘己</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後期</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平岡 さつき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2年</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前期</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アジア事情</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>謝 志海</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3年</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前期</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンピュータネットワーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小柏 伸夫</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3年</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャペルアワー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>野村　誠、大嶋　果織</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1年</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後期</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Written English IIG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小林 恵美</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Extensive Reading IV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2年</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Global Studies</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>謝 志海</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2年</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後期</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手話の理論と実際II</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡田 智裕</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミクロ経済学</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>兼本 雅章</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールドワークの方法II</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鈴木 鉄忠</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>English Writing for Teachers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤枝 豊</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境政策</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>群馬県</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後期</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像情報処理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小柏 伸夫</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奥田 雄一郎、松本 学、松本 昭彦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4年</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2年</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>児童英語教材研究</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>井熊 ひとみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前期</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青年心理学</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奥田 雄一郎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヨーロッパの歴史と文化</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大下 理世</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>謝 志海</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>呉 宣児</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平岡 さつき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西舘 崇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡井 宏文</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>野口 華世</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本語II  ・留学生プログラム科目</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家光 董子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1年</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小林 恵美</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>篠原 美登里</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロリ アン デロージェ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>竹内 愛</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>園田 敦子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中国現代事情</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>張 渭涛</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発達心理学</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>則近 千尋</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図画工作科教育法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本多 正直</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>美術室</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>呉 宣児</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西舘 崇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鈴木 鉄忠</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡井 宏文</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商業科教育法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>櫻井 清人</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通年</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大嶋 果織</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4年</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岸 一弘</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>心理学研究法II</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐藤 高司</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4年</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松本 学</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐藤 高司</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後期</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>張 渭涛</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通年</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2年</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通年</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英語コースの時間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2年</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教育方法・技術(中等)</t>
+  </si>
+  <si>
+    <t>課題演習 II(本多)</t>
+  </si>
+  <si>
+    <t>課題演習II(佐藤高)</t>
+  </si>
+  <si>
+    <t>課題演習I(謝)</t>
+  </si>
+  <si>
+    <t>卒業研究(平岡)</t>
+  </si>
+  <si>
+    <t>課題演習I(呉)</t>
+  </si>
+  <si>
+    <t>卒業研究(松本)</t>
+  </si>
+  <si>
+    <t>課題演習I(平岡)</t>
+  </si>
+  <si>
+    <t>卒業研究(佐藤高)</t>
+  </si>
+  <si>
+    <t>課題演習I(西舘)</t>
+  </si>
+  <si>
+    <t>卒業研究(野口)</t>
+  </si>
+  <si>
+    <t>課題演習I(鈴木)</t>
+  </si>
+  <si>
+    <t>海外フィールドワーク(台湾)</t>
+  </si>
+  <si>
+    <t>課題演習I(岡井)</t>
+  </si>
+  <si>
+    <t>海外フィールドワーク(韓国)</t>
+  </si>
+  <si>
+    <t>課題演習I(野口)</t>
+  </si>
+  <si>
+    <t>海外フィールドワーク(マレーシア)</t>
+  </si>
+  <si>
+    <t>基礎演習II(ペニントン)</t>
+  </si>
+  <si>
+    <t>基礎演習II(小林)</t>
+  </si>
+  <si>
+    <t>教職実践演習(中等)</t>
+  </si>
+  <si>
+    <t>基礎演習II(篠原)</t>
+  </si>
+  <si>
+    <t>基礎演習II(藤枝)</t>
+  </si>
+  <si>
+    <t>基礎演習II(デロージェ)</t>
+  </si>
+  <si>
+    <t>基礎演習II(竹内)</t>
+  </si>
+  <si>
+    <t>基礎演習II(園田)</t>
+  </si>
+  <si>
+    <t>課題演習 II(謝)</t>
+  </si>
+  <si>
+    <t>課題演習II(呉)</t>
+  </si>
+  <si>
+    <t>課題演習II(平岡)</t>
+  </si>
+  <si>
+    <t>課題演習II(西舘)</t>
+  </si>
+  <si>
+    <t>課題演習II(鈴木)</t>
+  </si>
+  <si>
+    <t>課題演習II(岡井)</t>
+  </si>
+  <si>
+    <t>課題演習II(野口)</t>
+  </si>
+  <si>
+    <t>卒業研究(大嶋)(後期のみ)</t>
+  </si>
+  <si>
+    <t>卒業研究(岸)</t>
+  </si>
+  <si>
+    <t>教育方法・技術(初等)</t>
     <rPh sb="0" eb="2">
       <t>キョウイク</t>
     </rPh>
@@ -69,7 +551,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>教職実習演習（初等）</t>
+    <t>教職実習演習(初等)</t>
     <rPh sb="0" eb="2">
       <t>キョウショク</t>
     </rPh>
@@ -85,524 +567,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>野口 華世</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>村山 賢哉、青木 博</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ウェイン ペニントン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>後期</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>杉沢 一美</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>佐藤 高司、岸 一弘、本多 正直、平岡 さつき、清水 弘己</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>後期</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>教育方法・技術(中等)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>平岡 さつき</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2年</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>前期</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アジア事情</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>謝 志海</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3年</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>前期</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コンピュータネットワーク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小柏 伸夫</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3年</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チャペルアワー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>野村　誠、大嶋　果織</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1年</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>後期</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Written English IIG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小林 恵美</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Extensive Reading IV</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2年</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Global Studies</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>謝 志海</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2年</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>後期</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>手話の理論と実際II</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>岡田 智裕</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ミクロ経済学</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>兼本 雅章</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フィールドワークの方法II</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>鈴木 鉄忠</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>English Writing for Teachers</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>藤枝 豊</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>環境政策</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>群馬県</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>後期</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画像情報処理</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小柏 伸夫</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>教職実践演習(中等)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>奥田 雄一郎、松本 学、松本 昭彦</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4年</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2年</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>児童英語教材研究</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>井熊 ひとみ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>前期</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>青年心理学</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>奥田 雄一郎</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ヨーロッパの歴史と文化</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大下 理世</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課題演習I(謝)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>謝 志海</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課題演習I(呉)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>呉 宣児</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課題演習I(平岡)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>平岡 さつき</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課題演習I(西舘)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>西舘 崇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課題演習I(鈴木)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課題演習I(岡井)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>岡井 宏文</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課題演習I(野口)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>野口 華世</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日本語II  ・留学生プログラム科目</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家光 董子</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基礎演習II(ペニントン)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1年</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基礎演習II(小林)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小林 恵美</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基礎演習II(篠原)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>篠原 美登里</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基礎演習II(藤枝)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基礎演習II(デロージェ)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ロリ アン デロージェ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基礎演習II(竹内)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>竹内 愛</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基礎演習II(園田)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>園田 敦子</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2412（英語コース1403）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中国現代事情</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>張 渭涛</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>発達心理学</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>則近 千尋</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>図画工作科教育法</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>本多 正直</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>美術室</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課題演習 II(謝)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課題演習II(呉)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>呉 宣児</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課題演習II(平岡)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課題演習II(西舘)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>西舘 崇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課題演習II(鈴木)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>鈴木 鉄忠</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課題演習II(岡井)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>岡井 宏文</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課題演習II(野口)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商業科教育法</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>櫻井 清人</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>通年</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>卒業研究(大嶋)(後期のみ)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大嶋 果織</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4年</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>卒業研究(岸)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>岸 一弘</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>心理学研究法II</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課題演習 II(本多)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課題演習II(佐藤高)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>佐藤 高司</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>卒業研究(平岡)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4年</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>卒業研究(松本)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>松本 学</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>卒業研究(佐藤高)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>佐藤 高司</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>後期</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>卒業研究(野口)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>海外フィールドワーク(台湾)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>張 渭涛</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>通年</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>海外フィールドワーク(韓国)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>海外フィールドワーク(マレーシア)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2年</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>通年</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>英語コースの時間</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2年</t>
-    <phoneticPr fontId="1"/>
+    <t>2412(英語コース1403)</t>
   </si>
 </sst>
 </file>
@@ -949,61 +914,61 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D1">
         <v>2413</v>
       </c>
       <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
       </c>
       <c r="I1">
         <v>4204</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N1">
         <v>1401</v>
       </c>
       <c r="O1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P1" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="Q1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="S1">
         <v>1206</v>
       </c>
       <c r="T1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -1011,61 +976,61 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D2">
         <v>2401</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I2">
         <v>1201</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N2">
         <v>3101</v>
       </c>
       <c r="O2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="Q2" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="R2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -1073,843 +1038,843 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>3101</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I3">
         <v>2302</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N3">
         <v>1201</v>
       </c>
       <c r="O3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P3" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="Q3" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="R3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S3">
         <v>4112</v>
       </c>
       <c r="T3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>2301</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I4">
         <v>1101</v>
       </c>
       <c r="J4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N4">
         <v>4203</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P4" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="Q4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="S4">
         <v>1213</v>
       </c>
       <c r="T4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I5">
         <v>1302</v>
       </c>
       <c r="J5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K5" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N5">
         <v>4201</v>
       </c>
       <c r="O5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P5" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="Q5" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="R5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="S5">
         <v>4211</v>
       </c>
       <c r="T5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I6">
         <v>3301</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K6" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N6">
         <v>1313</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P6" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="Q6" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="R6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="S6">
         <v>4112</v>
       </c>
       <c r="T6" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I7">
         <v>4201</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K7" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="L7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="M7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N7">
         <v>4206</v>
       </c>
       <c r="O7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="Q7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R7" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="S7">
         <v>1214</v>
       </c>
       <c r="T7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I8">
         <v>1401</v>
       </c>
       <c r="J8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K8" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N8">
         <v>4204</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P8" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="Q8" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="R8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="S8">
         <v>4206</v>
       </c>
       <c r="T8" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I9">
         <v>1206</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K9" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N9">
         <v>4202</v>
       </c>
       <c r="O9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P9" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="Q9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="R9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="S9">
         <v>4202</v>
       </c>
       <c r="T9" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I10">
         <v>1205</v>
       </c>
       <c r="J10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K10" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="M10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N10">
         <v>1214</v>
       </c>
       <c r="O10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P10" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="Q10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="R10" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="S10">
         <v>4202</v>
       </c>
       <c r="T10" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I11">
         <v>1301</v>
       </c>
       <c r="J11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K11" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="L11" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="M11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N11">
         <v>1303</v>
       </c>
       <c r="O11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P11" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="R11" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="S11">
         <v>1203</v>
       </c>
       <c r="T11" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I12">
         <v>1201</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K12" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M12" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="N12">
         <v>2413</v>
       </c>
       <c r="O12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I13">
         <v>2302</v>
       </c>
       <c r="J13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K13" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="L13" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="M13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N13">
         <v>1301</v>
       </c>
       <c r="O13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F14" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K14" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="L14" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="M14" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="N14">
         <v>1304</v>
       </c>
       <c r="O14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="K15" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="L15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M15" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="N15">
         <v>4112</v>
       </c>
       <c r="O15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="K16" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="L16" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="M16" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="N16">
         <v>2411</v>
       </c>
       <c r="O16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K17" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="L17" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="M17" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="N17">
         <v>2302</v>
       </c>
       <c r="O17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K18" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="L18" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="M18" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="N18" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="O18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K19" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="L19" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="M19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N19">
         <v>2401</v>
       </c>
       <c r="O19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K20" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="L20" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="M20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1206</v>
       </c>
       <c r="O20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K21" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="L21" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="M21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N21" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="O21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K22" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="L22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N22">
         <v>4203</v>
       </c>
       <c r="O22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K23" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="L23" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="M23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N23">
         <v>4201</v>
       </c>
       <c r="O23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K24" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="L24" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="M24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N24">
         <v>1313</v>
       </c>
       <c r="O24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K25" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="L25" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="M25" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N25">
         <v>4206</v>
       </c>
       <c r="O25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K26" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="L26" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="M26" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N26">
         <v>4204</v>
       </c>
       <c r="O26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K27" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="L27" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="M27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N27">
         <v>4202</v>
       </c>
       <c r="O27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K28" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="L28" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="M28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N28">
         <v>1214</v>
       </c>
       <c r="O28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K29" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="L29" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="M29" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N29">
         <v>2412</v>
       </c>
       <c r="O29" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K30" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="L30" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="M30" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="N30">
         <v>3301</v>
       </c>
       <c r="O30" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K31" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="L31" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="M31" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="N31">
         <v>1315</v>
       </c>
       <c r="O31" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/app/Http/Python/excel/Wednesday.xlsx
+++ b/app/Http/Python/excel/Wednesday.xlsx
@@ -433,109 +433,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>教育方法・技術(中等)</t>
-  </si>
-  <si>
-    <t>課題演習 II(本多)</t>
-  </si>
-  <si>
-    <t>課題演習II(佐藤高)</t>
-  </si>
-  <si>
-    <t>課題演習I(謝)</t>
-  </si>
-  <si>
-    <t>卒業研究(平岡)</t>
-  </si>
-  <si>
-    <t>課題演習I(呉)</t>
-  </si>
-  <si>
-    <t>卒業研究(松本)</t>
-  </si>
-  <si>
-    <t>課題演習I(平岡)</t>
-  </si>
-  <si>
-    <t>卒業研究(佐藤高)</t>
-  </si>
-  <si>
-    <t>課題演習I(西舘)</t>
-  </si>
-  <si>
-    <t>卒業研究(野口)</t>
-  </si>
-  <si>
-    <t>課題演習I(鈴木)</t>
-  </si>
-  <si>
-    <t>海外フィールドワーク(台湾)</t>
-  </si>
-  <si>
-    <t>課題演習I(岡井)</t>
-  </si>
-  <si>
-    <t>海外フィールドワーク(韓国)</t>
-  </si>
-  <si>
-    <t>課題演習I(野口)</t>
-  </si>
-  <si>
-    <t>海外フィールドワーク(マレーシア)</t>
-  </si>
-  <si>
-    <t>基礎演習II(ペニントン)</t>
-  </si>
-  <si>
-    <t>基礎演習II(小林)</t>
-  </si>
-  <si>
-    <t>教職実践演習(中等)</t>
-  </si>
-  <si>
-    <t>基礎演習II(篠原)</t>
-  </si>
-  <si>
-    <t>基礎演習II(藤枝)</t>
-  </si>
-  <si>
-    <t>基礎演習II(デロージェ)</t>
-  </si>
-  <si>
-    <t>基礎演習II(竹内)</t>
-  </si>
-  <si>
-    <t>基礎演習II(園田)</t>
-  </si>
-  <si>
-    <t>課題演習 II(謝)</t>
-  </si>
-  <si>
-    <t>課題演習II(呉)</t>
-  </si>
-  <si>
-    <t>課題演習II(平岡)</t>
-  </si>
-  <si>
-    <t>課題演習II(西舘)</t>
-  </si>
-  <si>
-    <t>課題演習II(鈴木)</t>
-  </si>
-  <si>
-    <t>課題演習II(岡井)</t>
-  </si>
-  <si>
-    <t>課題演習II(野口)</t>
-  </si>
-  <si>
-    <t>卒業研究(大嶋)(後期のみ)</t>
-  </si>
-  <si>
-    <t>卒業研究(岸)</t>
-  </si>
-  <si>
-    <t>教育方法・技術(初等)</t>
+    <t>教育方法・技術（中等）</t>
+  </si>
+  <si>
+    <t>課題演習 II（本多）</t>
+  </si>
+  <si>
+    <t>課題演習II（佐藤高）</t>
+  </si>
+  <si>
+    <t>教育方法・技術（初等）</t>
     <rPh sb="0" eb="2">
       <t>キョウイク</t>
     </rPh>
@@ -551,7 +458,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>教職実習演習(初等)</t>
+    <t>課題演習I（謝）</t>
+  </si>
+  <si>
+    <t>卒業研究（平岡）</t>
+  </si>
+  <si>
+    <t>教職実習演習（初等）</t>
     <rPh sb="0" eb="2">
       <t>キョウショク</t>
     </rPh>
@@ -567,7 +480,94 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2412(英語コース1403)</t>
+    <t>課題演習I（呉）</t>
+  </si>
+  <si>
+    <t>卒業研究（松本）</t>
+  </si>
+  <si>
+    <t>課題演習I（平岡）</t>
+  </si>
+  <si>
+    <t>卒業研究（佐藤高）</t>
+  </si>
+  <si>
+    <t>課題演習I（西舘）</t>
+  </si>
+  <si>
+    <t>卒業研究（野口）</t>
+  </si>
+  <si>
+    <t>課題演習I（鈴木）</t>
+  </si>
+  <si>
+    <t>海外フィールドワーク（台湾）</t>
+  </si>
+  <si>
+    <t>課題演習I（岡井）</t>
+  </si>
+  <si>
+    <t>海外フィールドワーク（韓国）</t>
+  </si>
+  <si>
+    <t>課題演習I（野口）</t>
+  </si>
+  <si>
+    <t>海外フィールドワーク（マレーシア）</t>
+  </si>
+  <si>
+    <t>基礎演習II（ペニントン）</t>
+  </si>
+  <si>
+    <t>基礎演習II（小林）</t>
+  </si>
+  <si>
+    <t>教職実践演習（中等）</t>
+  </si>
+  <si>
+    <t>基礎演習II（篠原）</t>
+  </si>
+  <si>
+    <t>基礎演習II（藤枝）</t>
+  </si>
+  <si>
+    <t>基礎演習II（デロージェ）</t>
+  </si>
+  <si>
+    <t>基礎演習II（竹内）</t>
+  </si>
+  <si>
+    <t>基礎演習II（園田）</t>
+  </si>
+  <si>
+    <t>2412（英語コース1403）</t>
+  </si>
+  <si>
+    <t>課題演習 II（謝）</t>
+  </si>
+  <si>
+    <t>課題演習II（呉）</t>
+  </si>
+  <si>
+    <t>課題演習II（平岡）</t>
+  </si>
+  <si>
+    <t>課題演習II（西舘）</t>
+  </si>
+  <si>
+    <t>課題演習II（鈴木）</t>
+  </si>
+  <si>
+    <t>課題演習II（岡井）</t>
+  </si>
+  <si>
+    <t>課題演習II（野口）</t>
+  </si>
+  <si>
+    <t>卒業研究（大嶋）（後期のみ）</t>
+  </si>
+  <si>
+    <t>卒業研究（岸）</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1127,7 +1127,7 @@
         <v>6</v>
       </c>
       <c r="K4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L4" t="s">
         <v>55</v>
@@ -1142,7 +1142,7 @@
         <v>50</v>
       </c>
       <c r="P4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q4" t="s">
         <v>10</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1186,7 +1186,7 @@
         <v>6</v>
       </c>
       <c r="K5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s">
         <v>56</v>
@@ -1201,7 +1201,7 @@
         <v>16</v>
       </c>
       <c r="P5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q5" t="s">
         <v>89</v>
@@ -1233,7 +1233,7 @@
         <v>9</v>
       </c>
       <c r="K6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s">
         <v>57</v>
@@ -1248,7 +1248,7 @@
         <v>50</v>
       </c>
       <c r="P6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q6" t="s">
         <v>90</v>
@@ -1280,7 +1280,7 @@
         <v>31</v>
       </c>
       <c r="K7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L7" t="s">
         <v>58</v>
@@ -1295,7 +1295,7 @@
         <v>16</v>
       </c>
       <c r="P7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q7" t="s">
         <v>3</v>
@@ -1327,7 +1327,7 @@
         <v>6</v>
       </c>
       <c r="K8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L8" t="s">
         <v>37</v>
@@ -1342,7 +1342,7 @@
         <v>50</v>
       </c>
       <c r="P8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q8" t="s">
         <v>92</v>
@@ -1374,7 +1374,7 @@
         <v>31</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s">
         <v>59</v>
@@ -1389,7 +1389,7 @@
         <v>16</v>
       </c>
       <c r="P9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q9" t="s">
         <v>56</v>
@@ -1421,7 +1421,7 @@
         <v>6</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -1436,7 +1436,7 @@
         <v>16</v>
       </c>
       <c r="P10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q10" t="s">
         <v>59</v>
@@ -1512,7 +1512,7 @@
         <v>42</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s">
         <v>5</v>
@@ -1544,7 +1544,7 @@
         <v>31</v>
       </c>
       <c r="K13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s">
         <v>64</v>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -1573,7 +1573,7 @@
         <v>6</v>
       </c>
       <c r="K14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L14" t="s">
         <v>65</v>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="K15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L15" t="s">
         <v>39</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="K16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L16" t="s">
         <v>66</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="17" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L17" t="s">
         <v>67</v>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="18" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L18" t="s">
         <v>68</v>
@@ -1650,7 +1650,7 @@
         <v>63</v>
       </c>
       <c r="N18" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="O18" t="s">
         <v>9</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="22" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K22" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L22" t="s">
         <v>29</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="23" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K23" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L23" t="s">
         <v>76</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="24" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K24" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L24" t="s">
         <v>57</v>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="25" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K25" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L25" t="s">
         <v>77</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="26" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K26" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L26" t="s">
         <v>78</v>
@@ -1794,7 +1794,7 @@
     </row>
     <row r="27" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K27" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L27" t="s">
         <v>79</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="28" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K28" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L28" t="s">
         <v>60</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="30" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L30" t="s">
         <v>83</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="31" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L31" t="s">
         <v>85</v>
